--- a/Question_Set2/Role-specific skills/Cloud System Administration.xlsx
+++ b/Question_Set2/Role-specific skills/Cloud System Administration.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are trying to log in to one of your on-premise Windows servers. You notice that the keyboard layout isn’t the one you are used to, and your password contains special characters.What should you do to log in as soon as possible?', 'ques_type': 2, 'options': ['Use the on-screen keyboard.', 'Restart the machine.', 'Use sticky keys.', 'Use high contrast.'], 'score': 'Use the on-screen keyboard.'}, {'title': 'Consider the curl output below.What can you do to see the expired.badssl.com content using curl?Note: You should choose the least impactful option.', 'ques_type': 2, 'options': ['Add --insecure to the curl request.', 'Add --no-check-certificate to curl request.', 'Update curl on the machine.', 'Download the certificate from the server and use it with curl to connect to the server.'], 'score': 'Add --insecure to the curl request.'}, {'title': 'Your company works with critical information that should not be stored on a shared infrastructure.What type of cloud should you choose?', 'ques_type': 2, 'options': ['Community cloud', 'Hybrid cloud', 'Public cloud', 'Private cloud'], 'score': 'Private cloud'}, {'title': 'Consider the following routing table.192.168.12.0/24, gateway 10.10.0.3192.168.0.0/16, gateway 10.10.0.4192.168.13.0/24, gateway 10.10.0.20.0.0.0/0, gateway 10.10.0.1What gateway will be used when sending a packet to 192.168.1.12?', 'ques_type': 2, 'options': ['10.10.0.1', '10.10.0.2', '10.10.0.3', '10.10.0.4'], 'score': '10.10.0.4'}]</t>
+    <t>questions = [
+    {
+        "title": "You are trying to log in to one of your on-premise Windows servers. You notice that the keyboard layout isn\u2019t the one you are used to, and your password contains special characters.What should you do to log in as soon as possible?",
+        "ques_type": 2,
+        "options": [
+            "Use the on-screen keyboard.",
+            "Restart the machine.",
+            "Use sticky keys.",
+            "Use high contrast."
+        ],
+        "score": "Use the on-screen keyboard."
+    },
+    {
+        "title": "Consider the curl output below.What can you do to see the expired.badssl.com content using curl?Note: You should choose the least impactful option.",
+        "ques_type": 2,
+        "options": [
+            "Add --insecure to the curl request.",
+            "Add --no-check-certificate to curl request.",
+            "Update curl on the machine.",
+            "Download the certificate from the server and use it with curl to connect to the server."
+        ],
+        "score": "Add --insecure to the curl request."
+    },
+    {
+        "title": "Your company works with critical information that should not be stored on a shared infrastructure.What type of cloud should you choose?",
+        "ques_type": 2,
+        "options": [
+            "Community cloud",
+            "Hybrid cloud",
+            "Public cloud",
+            "Private cloud"
+        ],
+        "score": "Private cloud"
+    },
+    {
+        "title": "Consider the following routing table.192.168.12.0/24, gateway 10.10.0.3192.168.0.0/16, gateway 10.10.0.4192.168.13.0/24, gateway 10.10.0.20.0.0.0/0, gateway 10.10.0.1What gateway will be used when sending a packet to 192.168.1.12?",
+        "ques_type": 2,
+        "options": [
+            "10.10.0.1",
+            "10.10.0.2",
+            "10.10.0.3",
+            "10.10.0.4"
+        ],
+        "score": "10.10.0.4"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
